--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1081537.590372115</v>
+        <v>1130689.548694453</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18157355.41581893</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2113478.654365223</v>
+        <v>606553.2040797155</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6537114.287000365</v>
+        <v>7054151.112648669</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>247.8853163645411</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -668,7 +670,7 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>303.2977242221725</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -814,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>109.1426757626845</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -865,7 +867,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>131.3131589043805</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -896,16 +898,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>54.59424272551902</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -947,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>45.10878876340928</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>153.2006427344293</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>46.2253027104011</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1142,10 +1144,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>118.5059629647061</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>32.36127543482709</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1294,22 +1296,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>109.142675762685</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>3.139541480023263</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1367,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>203.0390166328472</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>145.4261460119205</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1540,10 +1542,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>3.139541480023263</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1619,13 +1621,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>249.8692306884898</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>386.7175310072503</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1774,10 +1776,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>109.4519776932671</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -1819,7 +1821,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>46.22530271040155</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2017,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>155.2022955251541</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2254,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>18.05677735225717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2293,7 +2295,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>46.22530271040065</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>45.76594660771036</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>35.20092700998732</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2539,7 +2541,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2728,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
-        <v>13.99728392830417</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2965,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>67.42894579208244</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3190,13 +3192,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>120.1472970361153</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>141.3509401177971</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>50.30825486907117</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3433,7 +3435,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>35.34780583513513</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -3512,7 +3514,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>397.3838530629687</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>49.17722654850338</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3679,7 +3681,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>228.207631694666</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3727,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3743,19 +3745,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>150.2094947212802</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>11.70291171695784</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3806,7 +3808,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3907,16 +3909,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>52.4919554928645</v>
+        <v>14.14416275345373</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3977,22 +3979,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>272.1494839753895</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>111.8076036699552</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4147,7 +4149,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170478</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>456.8118216935309</v>
+        <v>389.6379614873604</v>
       </c>
       <c r="C2" t="n">
-        <v>422.7097529173582</v>
+        <v>139.2487530383289</v>
       </c>
       <c r="D2" t="n">
-        <v>390.8403721322068</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E2" t="n">
-        <v>361.106031330906</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>489.9993811856698</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>489.9993811856698</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>489.9993811856698</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M2" t="n">
-        <v>489.9993811856698</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>666.6506660403358</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
-        <v>1344.116250983141</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.581835925947</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2568.080621884541</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.012383954615</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V2" t="n">
-        <v>2115.395433888441</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W2" t="n">
-        <v>1710.539979299475</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X2" t="n">
-        <v>1291.397515878785</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="Y2" t="n">
-        <v>883.1113921784387</v>
+        <v>815.9375319722682</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>58.04882857612763</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>382.60715354234</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>1060.072738485145</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>1060.072738485145</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>1060.072738485145</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>1060.072738485145</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>1060.072738485145</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>1060.072738485145</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1600.811677117221</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>961.2411428278582</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C4" t="n">
-        <v>961.2411428278582</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D4" t="n">
-        <v>795.3631500293809</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="E4" t="n">
-        <v>625.6051462801182</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F4" t="n">
-        <v>448.8980922418745</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G4" t="n">
-        <v>283.3068172677021</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>143.4046429580766</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2649.986482340924</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2517.346927892055</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2271.46748147051</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>1993.034480723615</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1706.078972594046</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>1434.052568180337</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1188.66081351375</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>961.2411428278582</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>599.3615446327429</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C5" t="n">
-        <v>544.2158449099965</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D5" t="n">
-        <v>108.3060600844409</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E5" t="n">
-        <v>78.57171928314017</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>54.74469373275195</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>54.74469373275195</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>732.2102786755574</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>1409.675863618363</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>2087.141448561168</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>2568.080621884541</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P5" t="n">
-        <v>2568.080621884541</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.080621884541</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2517.167459510636</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2257.945156827654</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>2257.945156827654</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>1853.089702238687</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X5" t="n">
-        <v>1433.947238817997</v>
+        <v>2623.681342788512</v>
       </c>
       <c r="Y5" t="n">
-        <v>1025.661115117651</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>54.74469373275195</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="K6" t="n">
-        <v>54.74469373275195</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="L6" t="n">
-        <v>54.74469373275195</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="M6" t="n">
-        <v>732.2102786755574</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="N6" t="n">
-        <v>1409.675863618363</v>
+        <v>1055.800923465659</v>
       </c>
       <c r="O6" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="P6" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="Q6" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R6" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1133.802854344633</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>961.2411428278582</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>795.3631500293809</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>625.6051462801182</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>448.8980922418745</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>283.3068172677021</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>143.4046429580766</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2671.404303635552</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2512.162934933549</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T7" t="n">
-        <v>2357.414810959378</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U7" t="n">
-        <v>2357.414810959378</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V7" t="n">
-        <v>2070.459302829808</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>1798.4328984161</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>1553.041143749512</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>1325.62147306362</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1482.691478483091</v>
+        <v>2190.910269352854</v>
       </c>
       <c r="C8" t="n">
-        <v>1044.549005666515</v>
+        <v>1752.767796536277</v>
       </c>
       <c r="D8" t="n">
-        <v>608.6392208409593</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E8" t="n">
-        <v>174.8644759992545</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F8" t="n">
-        <v>55.16148310561195</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>55.16148310561195</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>55.16148310561195</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>54.74469373275195</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L8" t="n">
-        <v>732.2102786755574</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M8" t="n">
-        <v>1409.675863618363</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N8" t="n">
-        <v>2087.141448561168</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>2737.234686637598</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2737.234686637598</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2737.234686637598</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2737.234686637598</v>
+        <v>2637.372669426552</v>
       </c>
       <c r="W8" t="n">
-        <v>2332.379232048631</v>
+        <v>2636.557618877989</v>
       </c>
       <c r="X8" t="n">
-        <v>2317.277172668346</v>
+        <v>2621.455559497704</v>
       </c>
       <c r="Y8" t="n">
-        <v>1908.991048967999</v>
+        <v>2617.209839837762</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>54.74469373275195</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>54.74469373275195</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K9" t="n">
-        <v>54.74469373275195</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="L9" t="n">
-        <v>54.74469373275195</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="M9" t="n">
-        <v>54.74469373275195</v>
+        <v>740.3049442308645</v>
       </c>
       <c r="N9" t="n">
-        <v>54.74469373275195</v>
+        <v>1401.144998772643</v>
       </c>
       <c r="O9" t="n">
-        <v>382.60715354234</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="P9" t="n">
-        <v>1060.072738485145</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q9" t="n">
-        <v>1600.811677117221</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>742.8207098557364</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>570.2589983389613</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>404.381005540484</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="E10" t="n">
-        <v>234.6230017912213</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F10" t="n">
-        <v>57.91594775297747</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G10" t="n">
-        <v>54.74469373275195</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>54.74469373275195</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2649.986482340924</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2490.74511363892</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2244.865667217376</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1966.432666470481</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1679.477158340911</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1407.450753927203</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1162.058999260615</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.6393285747235</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1421.298771111432</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C11" t="n">
-        <v>983.1562982948553</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D11" t="n">
-        <v>983.1562982948553</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E11" t="n">
-        <v>549.3815534531504</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F11" t="n">
-        <v>549.3815534531504</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>344.2916376623957</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>55.16148310561195</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I11" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
-        <v>54.74469373275195</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>54.74469373275195</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>54.74469373275195</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="M11" t="n">
-        <v>732.2102786755574</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="N11" t="n">
-        <v>1409.675863618363</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O11" t="n">
-        <v>1409.675863618363</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P11" t="n">
-        <v>2021.581835925947</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q11" t="n">
-        <v>2568.080621884541</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R11" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>2653.582812821435</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T11" t="n">
-        <v>2653.582812821435</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="U11" t="n">
-        <v>2653.582812821435</v>
+        <v>4541.609868960946</v>
       </c>
       <c r="V11" t="n">
-        <v>2653.582812821435</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W11" t="n">
-        <v>2248.727358232468</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X11" t="n">
-        <v>1829.584894811779</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y11" t="n">
-        <v>1421.298771111432</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>560.9164387240447</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C12" t="n">
-        <v>454.459977560687</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
-        <v>359.3696887072403</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>265.249274034194</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>181.8654356503556</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>96.48034591653948</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
-        <v>54.74469373275195</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>54.74469373275195</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>54.74469373275195</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L12" t="n">
-        <v>54.74469373275195</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M12" t="n">
-        <v>54.74469373275195</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N12" t="n">
-        <v>732.2102786755574</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O12" t="n">
-        <v>1409.675863618363</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P12" t="n">
-        <v>1409.675863618363</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
-        <v>1600.811677117221</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S12" t="n">
-        <v>1654.529017659944</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T12" t="n">
-        <v>1524.350373990545</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.013826990514</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V12" t="n">
-        <v>1148.896309052513</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>963.5735547857071</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>808.7061190245871</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.2203398038079</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>742.8207098557364</v>
+        <v>962.5053054384693</v>
       </c>
       <c r="C13" t="n">
-        <v>570.2589983389613</v>
+        <v>789.9435939216943</v>
       </c>
       <c r="D13" t="n">
-        <v>404.381005540484</v>
+        <v>624.065601123217</v>
       </c>
       <c r="E13" t="n">
-        <v>234.6230017912213</v>
+        <v>454.3075973739543</v>
       </c>
       <c r="F13" t="n">
-        <v>57.91594775297747</v>
+        <v>277.6005433357104</v>
       </c>
       <c r="G13" t="n">
-        <v>54.74469373275195</v>
+        <v>112.0092683615381</v>
       </c>
       <c r="H13" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I13" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J13" t="n">
-        <v>141.3243788974418</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>416.0828334685774</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>834.2927152365385</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1293.776582417452</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.035385575096</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2155.704634800878</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.211528771219</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2649.986482340924</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2490.74511363892</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T13" t="n">
-        <v>2244.865667217376</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U13" t="n">
-        <v>1966.432666470481</v>
+        <v>2186.117262053214</v>
       </c>
       <c r="V13" t="n">
-        <v>1679.477158340911</v>
+        <v>1899.161753923644</v>
       </c>
       <c r="W13" t="n">
-        <v>1407.450753927203</v>
+        <v>1627.135349509936</v>
       </c>
       <c r="X13" t="n">
-        <v>1162.058999260615</v>
+        <v>1381.743594843348</v>
       </c>
       <c r="Y13" t="n">
-        <v>934.6393285747235</v>
+        <v>1154.323924157457</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2332.379232048631</v>
+        <v>2118.594685950267</v>
       </c>
       <c r="C14" t="n">
-        <v>1894.236759232054</v>
+        <v>1680.45221313369</v>
       </c>
       <c r="D14" t="n">
-        <v>1458.326974406499</v>
+        <v>1244.542428308135</v>
       </c>
       <c r="E14" t="n">
-        <v>1024.552229564794</v>
+        <v>810.7676834664296</v>
       </c>
       <c r="F14" t="n">
-        <v>596.6847999740016</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="G14" t="n">
-        <v>344.2916376623957</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H14" t="n">
-        <v>55.16148310561195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I14" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
-        <v>54.74469373275195</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K14" t="n">
-        <v>54.74469373275195</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>732.2102786755574</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M14" t="n">
-        <v>732.2102786755574</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N14" t="n">
-        <v>732.2102786755574</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O14" t="n">
-        <v>1409.675863618363</v>
+        <v>3418.614711553115</v>
       </c>
       <c r="P14" t="n">
-        <v>2087.141448561168</v>
+        <v>4246.924586386512</v>
       </c>
       <c r="Q14" t="n">
-        <v>2633.640234519763</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R14" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>2737.234686637598</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T14" t="n">
-        <v>2737.234686637598</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U14" t="n">
-        <v>2737.234686637598</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V14" t="n">
-        <v>2737.234686637598</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W14" t="n">
-        <v>2332.379232048631</v>
+        <v>3372.322843556211</v>
       </c>
       <c r="X14" t="n">
-        <v>2332.379232048631</v>
+        <v>2953.180380135521</v>
       </c>
       <c r="Y14" t="n">
-        <v>2332.379232048631</v>
+        <v>2544.894256435175</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>560.9164387240447</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C15" t="n">
-        <v>454.459977560687</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
-        <v>359.3696887072403</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>265.249274034194</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>181.8654356503556</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>96.48034591653948</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>54.74469373275195</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>54.74469373275195</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>54.74469373275195</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L15" t="n">
-        <v>54.74469373275195</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M15" t="n">
-        <v>54.74469373275195</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N15" t="n">
-        <v>54.74469373275195</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O15" t="n">
-        <v>499.7799316366797</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P15" t="n">
-        <v>1177.245516579485</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1717.984455211561</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S15" t="n">
-        <v>1654.529017659944</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T15" t="n">
-        <v>1524.350373990545</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.013826990514</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V15" t="n">
-        <v>1148.896309052513</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>963.5735547857071</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>808.7061190245871</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.2203398038079</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1133.802854344633</v>
+        <v>941.0874841438413</v>
       </c>
       <c r="C16" t="n">
-        <v>961.2411428278582</v>
+        <v>768.5257726270662</v>
       </c>
       <c r="D16" t="n">
-        <v>795.3631500293809</v>
+        <v>602.6477798285889</v>
       </c>
       <c r="E16" t="n">
-        <v>625.6051462801182</v>
+        <v>432.8897760793262</v>
       </c>
       <c r="F16" t="n">
-        <v>448.8980922418745</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="G16" t="n">
-        <v>283.3068172677021</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H16" t="n">
-        <v>143.4046429580766</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I16" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J16" t="n">
-        <v>141.3243788974418</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>416.0828334685774</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>834.2927152365385</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1293.776582417452</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.035385575096</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2155.704634800878</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.211528771219</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2649.986482340924</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>2649.986482340924</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="T16" t="n">
-        <v>2404.107035919379</v>
+        <v>2443.132441505481</v>
       </c>
       <c r="U16" t="n">
-        <v>2357.414810959378</v>
+        <v>2164.699440758586</v>
       </c>
       <c r="V16" t="n">
-        <v>2070.459302829808</v>
+        <v>1877.743932629016</v>
       </c>
       <c r="W16" t="n">
-        <v>1798.4328984161</v>
+        <v>1605.717528215308</v>
       </c>
       <c r="X16" t="n">
-        <v>1553.041143749512</v>
+        <v>1360.32577354872</v>
       </c>
       <c r="Y16" t="n">
-        <v>1325.62147306362</v>
+        <v>1132.906102862828</v>
       </c>
     </row>
     <row r="17">
@@ -5522,7 +5524,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5540,10 +5542,10 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
         <v>4550.100609912873</v>
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>1327.049347523737</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N18" t="n">
-        <v>1648.327823655249</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O18" t="n">
-        <v>1648.327823655249</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2562.150454693625</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2316.271008272081</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5738,40 +5740,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R20" t="n">
         <v>5113.04201353898</v>
@@ -5835,16 +5837,16 @@
         <v>1107.552685307369</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>970.9960463903949</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>798.4343348736198</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>632.5563420751425</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>462.7983383258798</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>286.091284287636</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>120.5000093134636</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T22" t="n">
-        <v>2473.041003752034</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U22" t="n">
-        <v>2194.608003005139</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.65249487557</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W22" t="n">
-        <v>1635.626090461861</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
-        <v>1390.234335795274</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>1162.814665109382</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6063,25 +6065,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3575.440564248063</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>3402.878852731288</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>3237.000859932811</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>3067.242856183548</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>2890.535802145304</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>2724.944527171132</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>2585.042352861507</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>5113.042013538981</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>5077.485521609701</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>4799.052520862807</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>4512.097012733238</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>4240.070608319529</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>3994.678853652942</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="Y25" t="n">
-        <v>3767.25918296705</v>
+        <v>1227.547229779338</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6227,25 +6229,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>1177.320806523639</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="M26" t="n">
-        <v>2334.36864173419</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="N26" t="n">
-        <v>3460.099625170637</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O26" t="n">
-        <v>4440.279291740943</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P26" t="n">
-        <v>4943.887948785924</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6306,19 +6308,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6449,64 +6451,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>1463.168637987179</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.168637987179</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="30">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2650.81040391895</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2404.930957497405</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6704,10 +6706,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2528.913654892426</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6737,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="33">
@@ -6832,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>811.7546776883914</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C34" t="n">
-        <v>639.1929661716164</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D34" t="n">
-        <v>639.1929661716164</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="E34" t="n">
-        <v>639.1929661716164</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F34" t="n">
         <v>496.4142387799021</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1230.99296709327</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y34" t="n">
-        <v>1003.573296407379</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6941,22 +6943,22 @@
         <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>1303.584742363082</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423627</v>
+        <v>2460.632577573633</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>3586.36356101008</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F37" t="n">
         <v>267.852115244952</v>
@@ -7148,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
         <v>793.2056155771595</v>
@@ -7175,49 +7177,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1286.300469346936</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1286.300469346936</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2443.348304557487</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C39" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D39" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E39" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F39" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G39" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M39" t="n">
-        <v>1300.985674363279</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N39" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S39" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V39" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W39" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X39" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.659051657336</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>920.0973401405612</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2538.261260176947</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2259.828259430053</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>2029.315500142511</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1757.289095728803</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1511.897341062215</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.477670376323</v>
+        <v>1230.99296709327</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>645.0307182669161</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C41" t="n">
-        <v>206.8882454503394</v>
+        <v>1666.220527238916</v>
       </c>
       <c r="D41" t="n">
-        <v>55.16148310561195</v>
+        <v>1230.31074241336</v>
       </c>
       <c r="E41" t="n">
-        <v>55.16148310561195</v>
+        <v>796.5359975716556</v>
       </c>
       <c r="F41" t="n">
-        <v>55.16148310561195</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G41" t="n">
-        <v>55.16148310561195</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
-        <v>55.16148310561195</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I41" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K41" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L41" t="n">
-        <v>54.74469373275195</v>
+        <v>1168.830065571713</v>
       </c>
       <c r="M41" t="n">
-        <v>732.2102786755574</v>
+        <v>2325.877900782264</v>
       </c>
       <c r="N41" t="n">
-        <v>1409.675863618363</v>
+        <v>3451.608884218711</v>
       </c>
       <c r="O41" t="n">
-        <v>1513.270315736198</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="P41" t="n">
-        <v>2190.735900679003</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q41" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R41" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>2737.234686637598</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T41" t="n">
-        <v>2517.167459510636</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U41" t="n">
-        <v>2257.945156827654</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V41" t="n">
-        <v>1895.32820676148</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W41" t="n">
-        <v>1490.472752172513</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X41" t="n">
-        <v>1071.330288751824</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y41" t="n">
-        <v>1071.330288751824</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>560.9164387240447</v>
+        <v>3531.436949455168</v>
       </c>
       <c r="C42" t="n">
-        <v>454.459977560687</v>
+        <v>3424.98048829181</v>
       </c>
       <c r="D42" t="n">
-        <v>359.3696887072403</v>
+        <v>3329.890199438363</v>
       </c>
       <c r="E42" t="n">
-        <v>265.249274034194</v>
+        <v>3235.769784765317</v>
       </c>
       <c r="F42" t="n">
-        <v>181.8654356503556</v>
+        <v>3152.385946381479</v>
       </c>
       <c r="G42" t="n">
-        <v>96.48034591653948</v>
+        <v>3067.000856647663</v>
       </c>
       <c r="H42" t="n">
-        <v>54.74469373275195</v>
+        <v>3025.265204463875</v>
       </c>
       <c r="I42" t="n">
-        <v>80.80836689320955</v>
+        <v>3051.328877624333</v>
       </c>
       <c r="J42" t="n">
-        <v>405.3666918594219</v>
+        <v>3375.887202590545</v>
       </c>
       <c r="K42" t="n">
-        <v>1060.072738485145</v>
+        <v>3375.887202590545</v>
       </c>
       <c r="L42" t="n">
-        <v>1060.072738485145</v>
+        <v>3375.887202590545</v>
       </c>
       <c r="M42" t="n">
-        <v>1060.072738485145</v>
+        <v>3375.887202590545</v>
       </c>
       <c r="N42" t="n">
-        <v>1060.072738485145</v>
+        <v>3375.887202590545</v>
       </c>
       <c r="O42" t="n">
-        <v>1060.072738485145</v>
+        <v>3375.887202590545</v>
       </c>
       <c r="P42" t="n">
-        <v>1060.072738485145</v>
+        <v>4030.593249216269</v>
       </c>
       <c r="Q42" t="n">
-        <v>1600.811677117221</v>
+        <v>4571.332187848344</v>
       </c>
       <c r="R42" t="n">
-        <v>1717.984455211561</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S42" t="n">
-        <v>1654.529017659944</v>
+        <v>4625.049528391067</v>
       </c>
       <c r="T42" t="n">
-        <v>1524.350373990545</v>
+        <v>4494.870884721669</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.013826990514</v>
+        <v>4318.534337721637</v>
       </c>
       <c r="V42" t="n">
-        <v>1148.896309052513</v>
+        <v>4119.416819783636</v>
       </c>
       <c r="W42" t="n">
-        <v>963.5735547857071</v>
+        <v>3934.09406551683</v>
       </c>
       <c r="X42" t="n">
-        <v>808.7061190245871</v>
+        <v>3779.22662975571</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.2203398038079</v>
+        <v>3652.740850534931</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1010.117977571909</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C43" t="n">
-        <v>837.5562660551342</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D43" t="n">
-        <v>671.6782732566569</v>
+        <v>443.4064111265855</v>
       </c>
       <c r="E43" t="n">
-        <v>501.9202695073942</v>
+        <v>273.6484073773227</v>
       </c>
       <c r="F43" t="n">
-        <v>448.8980922418745</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G43" t="n">
-        <v>283.3068172677021</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H43" t="n">
-        <v>143.4046429580766</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I43" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J43" t="n">
-        <v>141.3243788974418</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>416.0828334685774</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>834.2927152365385</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1293.776582417452</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1736.035385575096</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2155.704634800878</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2503.211528771219</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S43" t="n">
-        <v>2512.162934933549</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T43" t="n">
-        <v>2512.162934933549</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U43" t="n">
-        <v>2233.729934186654</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V43" t="n">
-        <v>1946.774426057084</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W43" t="n">
-        <v>1674.748021643376</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X43" t="n">
-        <v>1429.356266976788</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y43" t="n">
-        <v>1201.936596290896</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>343.8748482895357</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C44" t="n">
-        <v>343.8748482895357</v>
+        <v>1666.220527238916</v>
       </c>
       <c r="D44" t="n">
-        <v>343.8748482895357</v>
+        <v>1230.31074241336</v>
       </c>
       <c r="E44" t="n">
-        <v>343.8748482895357</v>
+        <v>796.5359975716556</v>
       </c>
       <c r="F44" t="n">
-        <v>343.8748482895357</v>
+        <v>368.6685679808633</v>
       </c>
       <c r="G44" t="n">
-        <v>343.8748482895357</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H44" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I44" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
-        <v>54.74469373275195</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>54.74469373275195</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>732.2102786755574</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="M44" t="n">
-        <v>1409.675863618363</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="N44" t="n">
-        <v>2087.141448561168</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O44" t="n">
-        <v>2737.234686637598</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P44" t="n">
-        <v>2737.234686637598</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q44" t="n">
-        <v>2737.234686637598</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R44" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>2737.234686637598</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T44" t="n">
-        <v>2624.297713233603</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U44" t="n">
-        <v>2365.075410550619</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V44" t="n">
-        <v>2002.458460484446</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W44" t="n">
-        <v>1597.603005895479</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X44" t="n">
-        <v>1178.46054247479</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y44" t="n">
-        <v>770.1744187744434</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1580.166670150082</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>1473.710208986724</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
-        <v>1378.619920133277</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>1284.499505460231</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>1201.115667076393</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>1115.730577342577</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>1073.994925158789</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
-        <v>1100.058598319247</v>
+        <v>93.8062990346578</v>
       </c>
       <c r="J45" t="n">
-        <v>1424.616923285459</v>
+        <v>418.3646240008701</v>
       </c>
       <c r="K45" t="n">
-        <v>2079.322969911183</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>2079.322969911183</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>2079.322969911183</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>2079.322969911183</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>2079.322969911183</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>2079.322969911183</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>2620.061908543259</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>2737.234686637598</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>2673.779249085981</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
-        <v>2543.600605416583</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>2367.264058416551</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
-        <v>2168.14654047855</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>1982.823786211744</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>1827.956350450624</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>1701.470571229845</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>971.0711138117297</v>
+        <v>803.2639367364659</v>
       </c>
       <c r="C46" t="n">
-        <v>798.5094022949546</v>
+        <v>630.7022252196908</v>
       </c>
       <c r="D46" t="n">
-        <v>632.6314094964773</v>
+        <v>464.8242324212135</v>
       </c>
       <c r="E46" t="n">
-        <v>462.8734057472146</v>
+        <v>295.0662286719508</v>
       </c>
       <c r="F46" t="n">
-        <v>286.1663517089709</v>
+        <v>118.359174633707</v>
       </c>
       <c r="G46" t="n">
-        <v>120.5750767347985</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H46" t="n">
-        <v>120.5750767347985</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I46" t="n">
-        <v>120.5750767347985</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J46" t="n">
-        <v>207.1547618994884</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>481.9132164706239</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>900.123098238585</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1359.606965419498</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1801.865768577142</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2221.535017802924</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2569.041911773266</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2737.234686637598</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2737.234686637598</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2718.995517594914</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T46" t="n">
-        <v>2473.116071173369</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U46" t="n">
-        <v>2194.683070426474</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V46" t="n">
-        <v>1907.727562296905</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W46" t="n">
-        <v>1635.701157883196</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X46" t="n">
-        <v>1390.309403216609</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y46" t="n">
-        <v>1162.889732530717</v>
+        <v>995.0825554554531</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N2" t="n">
-        <v>178.4356412673393</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.33750994280372</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>684.3086716593995</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>485.7971447710838</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8292,22 +8294,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M6" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>684.3086716593996</v>
+        <v>17.17305800913118</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4228197911089</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8453,28 +8455,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L8" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>656.6598364408383</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8538,19 +8540,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O9" t="n">
-        <v>331.1742018278667</v>
+        <v>200.3264657984394</v>
       </c>
       <c r="P9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8687,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>809.0782778761422</v>
       </c>
       <c r="M11" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>618.0868407147309</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8763,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8778,16 +8780,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>193.0664782816748</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8924,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>684.3086716593995</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,16 +8941,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>684.3086716593996</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>275.1780957607234</v>
       </c>
       <c r="R14" t="n">
-        <v>104.640860725086</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>449.5305433373007</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,10 +9172,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9237,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9249,22 +9251,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>324.5237132641532</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,19 +9485,19 @@
         <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>0.03656536949893052</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9875,13 +9877,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>702.7389601124037</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -9890,13 +9892,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>508.6956131767483</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525615</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10352,13 +10354,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>60.59188538505123</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10589,25 +10591,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>370.6804142768938</v>
       </c>
       <c r="M35" t="n">
-        <v>583.0591140826364</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,19 +10825,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>756.3484258820594</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10896,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,19 +11065,19 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593995</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>684.3086716593996</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>104.640860725086</v>
+        <v>697.3710058236143</v>
       </c>
       <c r="P41" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11139,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.319239015882</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>684.3086716593995</v>
+        <v>809.0782778761422</v>
       </c>
       <c r="M44" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>656.6598364408383</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949910105</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23255,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>194.3448364301216</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>111.2039336442328</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23428,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>160.7958207444073</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>147.5146223744789</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>14.08936903582673</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23662,10 +23664,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>65.48800580459424</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>229.4233680290242</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,13 +23940,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>2.446659489829187</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>229.4233680290251</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>144.1344859240869</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>208.2197249473419</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
-        <v>229.4233680290251</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24888,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>90.22000922290086</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>44.07191583437722</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>33.58904338006423</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25321,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>140.7232059832939</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>55.87832135360779</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25631,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>281.3411922560197</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>411.8858435779265</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>122.4480280049968</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25865,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>125.2343690875792</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -25913,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>106.0589511857366</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26035,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
@@ -26071,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>620683.2803292144</v>
+        <v>620418.6288904789</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>620683.2803292144</v>
+        <v>620418.6288904789</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>620683.2803292144</v>
+        <v>620418.6288904789</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>403818.837157503</v>
+        <v>581035.5610190687</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>403818.837157503</v>
+        <v>581035.5610190687</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>619592.5285139413</v>
+        <v>619592.5285139414</v>
       </c>
     </row>
     <row r="9">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>403818.8371575031</v>
+        <v>581035.5610190687</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>403818.8371575031</v>
+        <v>581035.5610190687</v>
       </c>
     </row>
   </sheetData>
@@ -26314,16 +26316,16 @@
         <v>335092.0749315052</v>
       </c>
       <c r="C2" t="n">
-        <v>335092.0749315051</v>
+        <v>335092.0749315054</v>
       </c>
       <c r="D2" t="n">
         <v>335092.0749315053</v>
       </c>
       <c r="E2" t="n">
-        <v>214611.828724999</v>
+        <v>308794.6693678433</v>
       </c>
       <c r="F2" t="n">
-        <v>214611.8287249991</v>
+        <v>308794.6693678432</v>
       </c>
       <c r="G2" t="n">
         <v>329285.9900858451</v>
@@ -26344,16 +26346,16 @@
         <v>329285.9900858451</v>
       </c>
       <c r="M2" t="n">
-        <v>329285.9900858451</v>
+        <v>329285.9900858452</v>
       </c>
       <c r="N2" t="n">
         <v>329285.9900858451</v>
       </c>
       <c r="O2" t="n">
-        <v>214611.8287249991</v>
+        <v>308794.6693678433</v>
       </c>
       <c r="P2" t="n">
-        <v>214611.8287249991</v>
+        <v>308794.6693678433</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229327.5749725129</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>150665.753571748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>162793.2877984415</v>
+        <v>29089.80917260779</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>179045.2580876519</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>125751.0883356908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>128068.9242817153</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="C4" t="n">
-        <v>128068.9242817153</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="D4" t="n">
-        <v>128068.9242817153</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>18043.07181607992</v>
+        <v>25961.31084165931</v>
       </c>
       <c r="F4" t="n">
-        <v>18043.07181607992</v>
+        <v>25961.31084165931</v>
       </c>
       <c r="G4" t="n">
         <v>27684.07875020268</v>
@@ -26454,10 +26456,10 @@
         <v>27684.07875020268</v>
       </c>
       <c r="O4" t="n">
-        <v>18043.07181607991</v>
+        <v>25961.31084165931</v>
       </c>
       <c r="P4" t="n">
-        <v>18043.07181607992</v>
+        <v>25961.31084165931</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="F5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="P5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.2754823288</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-97537.99155961449</v>
+        <v>-93577.44844631724</v>
       </c>
       <c r="C6" t="n">
-        <v>131789.5834128983</v>
+        <v>130122.2501377278</v>
       </c>
       <c r="D6" t="n">
-        <v>131789.5834128985</v>
+        <v>130122.2501377277</v>
       </c>
       <c r="E6" t="n">
-        <v>154962.7896720277</v>
+        <v>60902.32947210723</v>
       </c>
       <c r="F6" t="n">
-        <v>154962.7896720277</v>
+        <v>211568.0830438551</v>
       </c>
       <c r="G6" t="n">
-        <v>61090.38493140845</v>
+        <v>194793.8635572421</v>
       </c>
       <c r="H6" t="n">
         <v>223883.6727298498</v>
@@ -26543,7 +26545,7 @@
         <v>223883.6727298499</v>
       </c>
       <c r="J6" t="n">
-        <v>44838.41464219794</v>
+        <v>49232.32401214373</v>
       </c>
       <c r="K6" t="n">
         <v>223883.6727298498</v>
@@ -26552,16 +26554,16 @@
         <v>223883.6727298499</v>
       </c>
       <c r="M6" t="n">
-        <v>223883.6727298499</v>
+        <v>98132.5843941592</v>
       </c>
       <c r="N6" t="n">
         <v>223883.6727298499</v>
       </c>
       <c r="O6" t="n">
-        <v>154962.7896720277</v>
+        <v>211568.0830438552</v>
       </c>
       <c r="P6" t="n">
-        <v>154962.7896720277</v>
+        <v>211568.0830438552</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>504.611034877814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>593.9518317253459</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>593.9518317253459</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>185.8757317238698</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27388,7 +27390,7 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>120.2910310727118</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27397,7 +27399,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27534,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>58.91774794908558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27585,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>26.33579611060284</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27616,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>379.1668053628919</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27667,19 +27669,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.8422500230731</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>90.22000922290002</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>229.4233680290246</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27862,10 +27864,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>305.0827923301782</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27910,16 +27912,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>326.6295051306847</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28014,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>55.07653710780755</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>160.7958207444073</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -34699,22 +34701,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N2" t="n">
-        <v>178.4356412673393</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34772,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.33750994280372</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>684.3086716593995</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,13 +34865,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>485.7971447710838</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35012,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M6" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>684.3086716593996</v>
+        <v>17.17305800913118</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4228197911089</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35173,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L8" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>656.6598364408383</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -35258,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O9" t="n">
-        <v>331.1742018278667</v>
+        <v>200.3264657984394</v>
       </c>
       <c r="P9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>809.0782778761422</v>
       </c>
       <c r="M11" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>618.0868407147309</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35498,16 +35500,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>193.0664782816748</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,7 +35576,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35644,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>684.3086716593995</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35659,16 +35661,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>684.3086716593996</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>275.1780957607234</v>
       </c>
       <c r="R14" t="n">
-        <v>104.640860725086</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>449.5305433373007</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,7 +35813,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35890,10 +35892,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35969,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>324.5237132641532</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,19 +36205,19 @@
         <v>687.6096162327043</v>
       </c>
       <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>0.03656536949893052</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,7 +36454,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>702.7389601124037</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -36610,13 +36612,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>508.6956131767483</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,7 +36691,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525615</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37072,13 +37074,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>60.59188538505123</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37309,25 +37311,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>370.6804142768938</v>
       </c>
       <c r="M35" t="n">
-        <v>583.0591140826364</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,19 +37545,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>756.3484258820594</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
@@ -37616,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37783,19 +37785,19 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593995</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>684.3086716593996</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>104.640860725086</v>
+        <v>697.3710058236143</v>
       </c>
       <c r="P41" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37874,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.319239015882</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37944,7 +37946,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>684.3086716593995</v>
+        <v>809.0782778761422</v>
       </c>
       <c r="M44" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>656.6598364408383</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>0.03656536949910105</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1130689.548694453</v>
+        <v>1130083.461065556</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797155</v>
+        <v>606553.2040797153</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>247.8853163645411</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>357.322412658202</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -727,7 +727,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -822,10 +822,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>109.1426757626845</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -867,7 +867,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>73.01514676193472</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -904,10 +904,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>158.9128374365216</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>45.10878876340928</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1068,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>46.2253027104011</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1135,25 +1135,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>304.3964473643801</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>32.36127543482709</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1296,16 +1296,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>109.142675762685</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1341,10 +1341,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>266.7808108582859</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>145.4261460119205</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1545,7 +1545,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>18.05677735225757</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1621,13 +1621,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1669,7 +1669,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>386.7175310072503</v>
+        <v>71.73641154315204</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1776,10 +1776,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>109.4519776932671</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -1815,7 +1815,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1827,7 +1827,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>57.1738008234245</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2007,7 +2007,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2019,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>3.423392126084468</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2256,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>46.22530271040065</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>45.76594660771036</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2493,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2541,7 +2541,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2955,10 +2955,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>83.71046610478319</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3192,22 +3192,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>120.1472970361153</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3435,7 +3435,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>35.34780583513513</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3523,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>49.17722654850338</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3720,7 +3720,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>75.86622810093029</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>10.15073120213241</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3751,7 +3751,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>11.70291171695784</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -3909,7 +3909,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>14.14416275345373</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3991,10 +3991,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>272.1494839753895</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>145.8387674910519</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>24.34318456170478</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>153.2006427344288</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>389.6379614873604</v>
+        <v>1197.718769568168</v>
       </c>
       <c r="C2" t="n">
-        <v>139.2487530383289</v>
+        <v>1163.616700791996</v>
       </c>
       <c r="D2" t="n">
-        <v>107.3793722531775</v>
+        <v>1131.747320006844</v>
       </c>
       <c r="E2" t="n">
-        <v>77.64503145187676</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F2" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
         <v>53.81800590148855</v>
@@ -4330,19 +4330,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K2" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L2" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M2" t="n">
-        <v>1293.567921177998</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N2" t="n">
-        <v>1293.567921177998</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
@@ -4375,7 +4375,7 @@
         <v>1224.223655672615</v>
       </c>
       <c r="Y2" t="n">
-        <v>815.9375319722682</v>
+        <v>1219.977936012672</v>
       </c>
     </row>
     <row r="3">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>741.4772326516122</v>
+        <v>826.9659278567121</v>
       </c>
       <c r="C4" t="n">
-        <v>568.9155211348371</v>
+        <v>654.4042163399371</v>
       </c>
       <c r="D4" t="n">
-        <v>568.9155211348371</v>
+        <v>488.5262235414597</v>
       </c>
       <c r="E4" t="n">
-        <v>458.6703941018225</v>
+        <v>318.768219792197</v>
       </c>
       <c r="F4" t="n">
-        <v>281.9633400635787</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H4" t="n">
         <v>142.0611657539532</v>
@@ -4515,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>2574.890331639896</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>2329.010885218351</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>2050.577884471456</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>1763.622376341887</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1491.595971928179</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056491</v>
+        <v>1246.204217261591</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705994</v>
+        <v>1018.784546575699</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1789.095648603258</v>
+        <v>1111.798517333797</v>
       </c>
       <c r="C5" t="n">
-        <v>1350.953175786681</v>
+        <v>673.6560445172204</v>
       </c>
       <c r="D5" t="n">
-        <v>915.0433909611256</v>
+        <v>237.7462596916649</v>
       </c>
       <c r="E5" t="n">
-        <v>481.2686461194208</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
         <v>53.40121652862856</v>
@@ -4570,22 +4570,22 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M5" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N5" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2471.176067606882</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
         <v>2500.906761678371</v>
@@ -4594,25 +4594,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W5" t="n">
-        <v>2669.245775882865</v>
+        <v>1961.486270899337</v>
       </c>
       <c r="X5" t="n">
-        <v>2623.681342788512</v>
+        <v>1542.343807478647</v>
       </c>
       <c r="Y5" t="n">
-        <v>2215.395219088166</v>
+        <v>1538.098087818705</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>377.9595414948409</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1055.800923465659</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
         <v>1716.640978007438</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="I7" t="n">
         <v>53.40121652862856</v>
@@ -4752,25 +4752,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2648.6430051368</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2402.763558715255</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>2356.071333755254</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2190.910269352854</v>
+        <v>448.5358106104095</v>
       </c>
       <c r="C8" t="n">
-        <v>1752.767796536277</v>
+        <v>414.4337418342369</v>
       </c>
       <c r="D8" t="n">
-        <v>1316.858011710722</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>883.0832668690169</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>455.2158372782247</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2637.372669426552</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W8" t="n">
-        <v>2636.557618877989</v>
+        <v>1702.263968216353</v>
       </c>
       <c r="X8" t="n">
-        <v>2621.455559497704</v>
+        <v>1283.121504795664</v>
       </c>
       <c r="Y8" t="n">
-        <v>2617.209839837762</v>
+        <v>874.8353810953173</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>740.3049442308645</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1401.144998772643</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516127</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>568.9155211348376</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>458.6703941018225</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>458.6703941018225</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>281.9633400635787</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
         <v>281.9633400635787</v>
@@ -4989,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5047,46 +5047,46 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>2164.36257382733</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M11" t="n">
-        <v>2164.36257382733</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N11" t="n">
-        <v>2164.36257382733</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O11" t="n">
-        <v>3144.542240397637</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P11" t="n">
-        <v>3972.852115231033</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q11" t="n">
-        <v>4519.350901189628</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R11" t="n">
         <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>4688.504965942684</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T11" t="n">
-        <v>4688.504965942684</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U11" t="n">
-        <v>4541.609868960946</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="V11" t="n">
-        <v>4178.992918894773</v>
+        <v>4022.168914933386</v>
       </c>
       <c r="W11" t="n">
-        <v>3774.137464305806</v>
+        <v>3617.31346034442</v>
       </c>
       <c r="X11" t="n">
-        <v>3354.995000885117</v>
+        <v>3198.17099692373</v>
       </c>
       <c r="Y11" t="n">
-        <v>2946.70887718477</v>
+        <v>2789.884873223384</v>
       </c>
     </row>
     <row r="12">
@@ -5129,13 +5129,13 @@
         <v>444.3920974455236</v>
       </c>
       <c r="M12" t="n">
-        <v>444.3920974455236</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N12" t="n">
-        <v>444.3920974455236</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O12" t="n">
-        <v>444.3920974455236</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P12" t="n">
         <v>1099.098144071247</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>962.5053054384693</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C13" t="n">
-        <v>789.9435939216943</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D13" t="n">
-        <v>624.065601123217</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E13" t="n">
-        <v>454.3075973739543</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F13" t="n">
-        <v>277.6005433357104</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G13" t="n">
-        <v>112.0092683615381</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H13" t="n">
         <v>93.77009931885368</v>
@@ -5226,25 +5226,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2710.429709221653</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T13" t="n">
-        <v>2464.550262800109</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U13" t="n">
-        <v>2186.117262053214</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V13" t="n">
-        <v>1899.161753923644</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W13" t="n">
-        <v>1627.135349509936</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X13" t="n">
-        <v>1381.743594843348</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y13" t="n">
-        <v>1154.323924157457</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2118.594685950267</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C14" t="n">
-        <v>1680.45221313369</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D14" t="n">
-        <v>1244.542428308135</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E14" t="n">
-        <v>810.7676834664296</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F14" t="n">
-        <v>382.9002538756374</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G14" t="n">
-        <v>382.9002538756374</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H14" t="n">
-        <v>93.77009931885368</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I14" t="n">
         <v>93.77009931885368</v>
@@ -5284,46 +5284,46 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>2438.435044982809</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M14" t="n">
-        <v>2438.435044982809</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N14" t="n">
-        <v>2438.435044982809</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O14" t="n">
-        <v>3418.614711553115</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P14" t="n">
-        <v>4246.924586386512</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q14" t="n">
-        <v>4519.350901189628</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R14" t="n">
         <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>4604.853092126521</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T14" t="n">
-        <v>4384.78586499956</v>
+        <v>4468.437738815723</v>
       </c>
       <c r="U14" t="n">
-        <v>4125.563562316576</v>
+        <v>4209.215436132739</v>
       </c>
       <c r="V14" t="n">
-        <v>3762.946612250403</v>
+        <v>3846.598486066566</v>
       </c>
       <c r="W14" t="n">
-        <v>3372.322843556211</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X14" t="n">
-        <v>2953.180380135521</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y14" t="n">
-        <v>2544.894256435175</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="15">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>941.0874841438413</v>
+        <v>996.1212058924913</v>
       </c>
       <c r="C16" t="n">
-        <v>768.5257726270662</v>
+        <v>823.5594943757162</v>
       </c>
       <c r="D16" t="n">
-        <v>602.6477798285889</v>
+        <v>657.6815015772389</v>
       </c>
       <c r="E16" t="n">
-        <v>432.8897760793262</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="F16" t="n">
-        <v>322.3322228538038</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G16" t="n">
         <v>322.3322228538038</v>
@@ -5463,25 +5463,25 @@
         <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>2689.011887927025</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T16" t="n">
-        <v>2443.132441505481</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U16" t="n">
-        <v>2164.699440758586</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V16" t="n">
-        <v>1877.743932629016</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W16" t="n">
-        <v>1605.717528215308</v>
+        <v>1660.751249963958</v>
       </c>
       <c r="X16" t="n">
-        <v>1360.32577354872</v>
+        <v>1415.35949529737</v>
       </c>
       <c r="Y16" t="n">
-        <v>1132.906102862828</v>
+        <v>1187.939824611478</v>
       </c>
     </row>
     <row r="17">
@@ -5503,13 +5503,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5524,22 +5524,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
         <v>5029.390139722817</v>
@@ -5554,13 +5554,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>448.0171411277256</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>271.3100870894817</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>105.7188121153094</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="20">
@@ -5740,40 +5740,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3007.131363532227</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N20" t="n">
-        <v>4132.862346968674</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.04201353898</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
         <v>5113.04201353898</v>
@@ -5828,25 +5828,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5992,25 +5992,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,10 +6065,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
         <v>1107.588885023173</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1454.96690046523</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1227.547229779338</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6214,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6232,19 +6232,19 @@
         <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>936.6111322289576</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>1632.322702740237</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N26" t="n">
-        <v>2758.053686176684</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O26" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580387</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q26" t="n">
         <v>5113.042013538981</v>
@@ -6451,64 +6451,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L29" t="n">
-        <v>1463.168637987179</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M29" t="n">
-        <v>1463.168637987179</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423626</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993932</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.389162827329</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785923</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6709,7 +6709,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6739,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>496.4142387799021</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>496.4142387799021</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1303.584742363082</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2460.632577573633</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>3586.36356101008</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>4566.543227580387</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6976,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
         <v>267.852115244952</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7186,40 +7186,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7359,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.99296709327</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y40" t="n">
-        <v>1230.99296709327</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2104.363000055493</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C41" t="n">
-        <v>1666.220527238916</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D41" t="n">
-        <v>1230.31074241336</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E41" t="n">
-        <v>796.5359975716556</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F41" t="n">
         <v>784.7148746252335</v>
@@ -7411,28 +7411,28 @@
         <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
-        <v>93.77009931885368</v>
+        <v>254.9523156162931</v>
       </c>
       <c r="K41" t="n">
-        <v>93.77009931885368</v>
+        <v>1089.302607574471</v>
       </c>
       <c r="L41" t="n">
-        <v>1168.830065571713</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="M41" t="n">
-        <v>2325.877900782264</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="N41" t="n">
-        <v>3451.608884218711</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O41" t="n">
-        <v>4142.00617998409</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P41" t="n">
-        <v>4142.00617998409</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q41" t="n">
-        <v>4688.504965942684</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R41" t="n">
         <v>4688.504965942684</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3531.436949455168</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C42" t="n">
-        <v>3424.98048829181</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
-        <v>3329.890199438363</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>3235.769784765317</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>3152.385946381479</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>3067.000856647663</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>3025.265204463875</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
-        <v>3051.328877624333</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>3375.887202590545</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>3375.887202590545</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>3375.887202590545</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>3375.887202590545</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>3375.887202590545</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>3375.887202590545</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
-        <v>4030.593249216269</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>4571.332187848344</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>4688.504965942684</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S42" t="n">
-        <v>4625.049528391067</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T42" t="n">
-        <v>4494.870884721669</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>4318.534337721637</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V42" t="n">
-        <v>4119.416819783636</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>3934.09406551683</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>3779.22662975571</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y42" t="n">
-        <v>3652.740850534931</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>781.8461154418378</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C43" t="n">
-        <v>609.2844039250627</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D43" t="n">
-        <v>443.4064111265855</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E43" t="n">
-        <v>273.6484073773227</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F43" t="n">
         <v>259.361374293026</v>
@@ -7593,28 +7593,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2529.770519225022</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T43" t="n">
-        <v>2283.891072803477</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U43" t="n">
-        <v>2005.458072056582</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V43" t="n">
-        <v>1718.502563927013</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W43" t="n">
-        <v>1446.476159513304</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X43" t="n">
-        <v>1201.084404846717</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y43" t="n">
-        <v>973.664734160825</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2104.363000055493</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C44" t="n">
-        <v>1666.220527238916</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D44" t="n">
-        <v>1230.31074241336</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E44" t="n">
-        <v>796.5359975716556</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F44" t="n">
-        <v>368.6685679808633</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G44" t="n">
-        <v>93.77009931885368</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H44" t="n">
         <v>93.77009931885368</v>
@@ -7648,52 +7648,52 @@
         <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
-        <v>529.0247867717716</v>
+        <v>424.1063803693496</v>
       </c>
       <c r="K44" t="n">
-        <v>1363.37507872995</v>
+        <v>1258.456672327527</v>
       </c>
       <c r="L44" t="n">
-        <v>2164.36257382733</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M44" t="n">
-        <v>2164.36257382733</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N44" t="n">
-        <v>2164.36257382733</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O44" t="n">
-        <v>3144.542240397637</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P44" t="n">
-        <v>3972.852115231033</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q44" t="n">
-        <v>4519.350901189628</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R44" t="n">
         <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>4604.853092126521</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T44" t="n">
-        <v>4384.78586499956</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="U44" t="n">
-        <v>4125.563562316576</v>
+        <v>4541.193079588086</v>
       </c>
       <c r="V44" t="n">
-        <v>3762.946612250403</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="W44" t="n">
-        <v>3358.091157661436</v>
+        <v>3773.720674932946</v>
       </c>
       <c r="X44" t="n">
-        <v>2938.948694240747</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y44" t="n">
-        <v>2530.6625705404</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="45">
@@ -7724,10 +7724,10 @@
         <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
-        <v>93.8062990346578</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>418.3646240008701</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
         <v>1099.098144071247</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.2639367364659</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C46" t="n">
-        <v>630.7022252196908</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D46" t="n">
-        <v>464.8242324212135</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="E46" t="n">
-        <v>295.0662286719508</v>
+        <v>664.63055186622</v>
       </c>
       <c r="F46" t="n">
-        <v>118.359174633707</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G46" t="n">
-        <v>93.77009931885368</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H46" t="n">
-        <v>93.77009931885368</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I46" t="n">
         <v>93.77009931885368</v>
@@ -7836,22 +7836,22 @@
         <v>2551.18834051965</v>
       </c>
       <c r="T46" t="n">
-        <v>2305.308894098105</v>
+        <v>2396.440216545479</v>
       </c>
       <c r="U46" t="n">
-        <v>2026.87589335121</v>
+        <v>2396.440216545479</v>
       </c>
       <c r="V46" t="n">
-        <v>1739.920385221641</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="W46" t="n">
-        <v>1467.893980807932</v>
+        <v>1837.458304002202</v>
       </c>
       <c r="X46" t="n">
-        <v>1222.502226141345</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y46" t="n">
-        <v>995.0825554554531</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>667.515206607857</v>
@@ -7987,13 +7987,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -8218,7 +8218,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8227,7 +8227,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
         <v>667.515206607857</v>
@@ -8236,7 +8236,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>30.03100411261585</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>17.17305800913118</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8467,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8476,7 +8476,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,28 +8531,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>200.3264657984394</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8695,7 +8695,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>809.0782778761422</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8932,7 +8932,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>275.1780957607234</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9172,16 +9172,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>801.4298400828725</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -9412,19 +9412,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>801.4298400828725</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9640,28 +9640,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9880,25 +9880,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>702.7389601124037</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L29" t="n">
-        <v>92.22506899525615</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -10129,13 +10129,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10357,10 +10357,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>370.6804142768938</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>162.8103194923631</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>697.3710058236143</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.319239015882</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>333.6730111621171</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>809.0782778761422</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.03656536949910105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>155.2557639217728</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>111.2039336442328</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23466,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>14.08936903582673</v>
+        <v>329.070488499925</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23664,10 +23664,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>65.48800580459424</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>212.1323395461469</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>135.0797604404447</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>229.4233680290251</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>144.1344859240869</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>84.34995760698692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>44.07191583437722</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>140.7232059832939</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>208.2197249473435</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>411.8858435779263</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>411.8858435779265</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>125.2343690875792</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>110.7913121651014</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>90.22000922290047</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>581035.5610190687</v>
+        <v>581035.5610190688</v>
       </c>
     </row>
     <row r="6">
@@ -26316,22 +26316,22 @@
         <v>335092.0749315052</v>
       </c>
       <c r="C2" t="n">
-        <v>335092.0749315054</v>
+        <v>335092.0749315053</v>
       </c>
       <c r="D2" t="n">
-        <v>335092.0749315053</v>
+        <v>335092.0749315052</v>
       </c>
       <c r="E2" t="n">
-        <v>308794.6693678433</v>
+        <v>308794.6693678432</v>
       </c>
       <c r="F2" t="n">
-        <v>308794.6693678432</v>
+        <v>308794.6693678434</v>
       </c>
       <c r="G2" t="n">
+        <v>329285.990085845</v>
+      </c>
+      <c r="H2" t="n">
         <v>329285.9900858451</v>
-      </c>
-      <c r="H2" t="n">
-        <v>329285.990085845</v>
       </c>
       <c r="I2" t="n">
         <v>329285.9900858451</v>
@@ -26340,22 +26340,22 @@
         <v>329285.9900858451</v>
       </c>
       <c r="K2" t="n">
-        <v>329285.990085845</v>
+        <v>329285.9900858451</v>
       </c>
       <c r="L2" t="n">
         <v>329285.9900858451</v>
       </c>
       <c r="M2" t="n">
-        <v>329285.9900858452</v>
+        <v>329285.9900858451</v>
       </c>
       <c r="N2" t="n">
         <v>329285.9900858451</v>
       </c>
       <c r="O2" t="n">
-        <v>308794.6693678433</v>
+        <v>308794.6693678432</v>
       </c>
       <c r="P2" t="n">
-        <v>308794.6693678433</v>
+        <v>308794.6693678432</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-93577.44844631724</v>
+        <v>-93577.44844631727</v>
       </c>
       <c r="C6" t="n">
-        <v>130122.2501377278</v>
+        <v>130122.2501377277</v>
       </c>
       <c r="D6" t="n">
-        <v>130122.2501377277</v>
+        <v>130122.2501377276</v>
       </c>
       <c r="E6" t="n">
-        <v>60902.32947210723</v>
+        <v>60797.13984985245</v>
       </c>
       <c r="F6" t="n">
-        <v>211568.0830438551</v>
+        <v>211462.8934216006</v>
       </c>
       <c r="G6" t="n">
-        <v>194793.8635572421</v>
+        <v>194770.6392178594</v>
       </c>
       <c r="H6" t="n">
-        <v>223883.6727298498</v>
+        <v>223860.4483904672</v>
       </c>
       <c r="I6" t="n">
-        <v>223883.6727298499</v>
+        <v>223860.4483904672</v>
       </c>
       <c r="J6" t="n">
-        <v>49232.32401214373</v>
+        <v>49209.09967276108</v>
       </c>
       <c r="K6" t="n">
-        <v>223883.6727298498</v>
+        <v>223860.4483904672</v>
       </c>
       <c r="L6" t="n">
-        <v>223883.6727298499</v>
+        <v>223860.4483904672</v>
       </c>
       <c r="M6" t="n">
-        <v>98132.5843941592</v>
+        <v>98109.36005477645</v>
       </c>
       <c r="N6" t="n">
-        <v>223883.6727298499</v>
+        <v>223860.4483904672</v>
       </c>
       <c r="O6" t="n">
-        <v>211568.0830438552</v>
+        <v>211462.8934216005</v>
       </c>
       <c r="P6" t="n">
-        <v>211568.0830438552</v>
+        <v>211462.8934216005</v>
       </c>
     </row>
   </sheetData>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>185.8757317238698</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>72.11458473508577</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27542,10 +27542,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>58.91774794908558</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>84.63380825304858</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27624,10 +27624,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>270.5241599567661</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27678,13 +27678,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>369.8422500230731</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>84.63380825304846</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,13 +27824,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>229.4233680290246</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>127.1542396129198</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>326.6295051306847</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,16 +28016,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>55.07653710780755</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>667.515206607857</v>
@@ -34707,13 +34707,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -34938,7 +34938,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34947,7 +34947,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
         <v>667.515206607857</v>
@@ -34956,7 +34956,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>30.03100411261585</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>17.17305800913118</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35187,7 +35187,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35196,7 +35196,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>200.3264657984394</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35415,7 +35415,7 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>809.0782778761422</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35433,7 +35433,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,7 +35497,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35652,7 +35652,7 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35667,10 +35667,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>275.1780957607234</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35892,16 +35892,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>801.4298400828725</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35977,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -36132,19 +36132,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>801.4298400828725</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36217,7 +36217,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36360,28 +36360,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36600,22 +36600,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>702.7389601124037</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L29" t="n">
-        <v>92.22506899525615</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -36849,13 +36849,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37077,10 +37077,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>661.3192390158824</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>370.6804142768938</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>661.3192390158824</v>
@@ -37642,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>162.8103194923631</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>697.3710058236143</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.319239015882</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>333.6730111621171</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>809.0782778761422</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.03656536949910105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
